--- a/data/trans_camb/P15B_tráfico-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15B_tráfico-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-30.33931141790207</v>
+        <v>-26.75707293873881</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-44.08546348476381</v>
+        <v>-42.78533877859858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-59.28248827689632</v>
+        <v>-61.68739327788592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-33.20939736424234</v>
+        <v>-36.34611403650383</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-43.3703219880496</v>
+        <v>-43.60104777351763</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.89897227118244</v>
+        <v>-15.574731069105</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-23.818807419724</v>
+        <v>-22.9728863612491</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-40.52013317122898</v>
+        <v>-36.41245688707853</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-33.4646178128742</v>
+        <v>-34.54954053237299</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.69687547709958</v>
+        <v>15.93514560468067</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.553664562009385</v>
+        <v>1.133493476440235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.924458902701502</v>
+        <v>4.103730847433129</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.80751191260003</v>
+        <v>32.47717888706203</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>29.16792726205804</v>
+        <v>27.90544221227075</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>61.47242266595818</v>
+        <v>64.92392165191455</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.13538188393838</v>
+        <v>13.45626902485731</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.7087752579954864</v>
+        <v>0.3017093833945586</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.79275623995465</v>
+        <v>22.53617214018995</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4612462824558459</v>
+        <v>-0.4397519084628531</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7258241545263578</v>
+        <v>-0.7044419214225016</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5096835558716296</v>
+        <v>-0.5332927996902009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6850528890322697</v>
+        <v>-0.7016651917239001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2661426967184881</v>
+        <v>-0.2489475903108953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3920308122678133</v>
+        <v>-0.379537835338905</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6622869193330322</v>
+        <v>-0.606559166284558</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5870624902178291</v>
+        <v>-0.6254175207598847</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3457087309191599</v>
+        <v>0.4339099027674573</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03012690466595661</v>
+        <v>0.04284489732746586</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5674043132692861</v>
+        <v>0.2342392260903042</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.088932262650465</v>
+        <v>1.816192508627271</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.909475024019794</v>
+        <v>1.472342165559966</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.69794009889164</v>
+        <v>3.198093713909442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3133459698926289</v>
+        <v>0.4151564021362614</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01282436797574835</v>
+        <v>0.02636829554171747</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5978041973684358</v>
+        <v>0.542872042898796</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.900803404230599</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.934842144826972</v>
+        <v>3.934842144826989</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.92657154201815</v>
+        <v>-26.21887224752399</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-24.20257252228213</v>
+        <v>-26.5813809978008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.1515788999568</v>
+        <v>-14.99797878276484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-33.04851811859427</v>
+        <v>-29.65599777610866</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-25.19508144411909</v>
+        <v>-24.44931977780208</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-44.93780979826352</v>
+        <v>-40.81394557585046</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-21.20062151324093</v>
+        <v>-20.76892353162737</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-18.49264604784885</v>
+        <v>-16.77206695359323</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-18.01831588913803</v>
+        <v>-18.28096287027764</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.99382415772861</v>
+        <v>11.66543109918311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.90953583151921</v>
+        <v>14.55795792781736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41.13165095536523</v>
+        <v>40.94376756862415</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24.21748485202496</v>
+        <v>27.2584951931443</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>36.03465154866869</v>
+        <v>37.03453692661621</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.79702963733826</v>
+        <v>22.14813648452404</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.732116846396995</v>
+        <v>10.286013170529</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.61500425812812</v>
+        <v>16.22434324728926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>27.27352306187939</v>
+        <v>26.79429410428628</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1334040322437943</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3913097540098517</v>
+        <v>0.3913097540098519</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.01536490777947325</v>
@@ -974,7 +974,7 @@
         <v>0.1988713864597843</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.405292704144059</v>
+        <v>-0.4052927041440588</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1418626912705274</v>
@@ -983,7 +983,7 @@
         <v>-0.02844323808441404</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1242442595401753</v>
+        <v>0.1242442595401758</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5754757744457135</v>
+        <v>-0.5991668711410918</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5829669913305859</v>
+        <v>-0.5987222829731826</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4643637614883258</v>
+        <v>-0.4192084075492737</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6118900944458439</v>
+        <v>-0.6049954743443192</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5120884373925793</v>
+        <v>-0.5033061769211873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8662617344707065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4951646832904915</v>
+        <v>-0.4982249170736142</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4481515630344098</v>
+        <v>-0.404282532067521</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5098681372371742</v>
+        <v>-0.4736942147785256</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6261733298177217</v>
+        <v>0.679578832962599</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9244393136575726</v>
+        <v>0.8833109180612289</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.063902049347228</v>
+        <v>2.21621838136078</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.826489553513793</v>
+        <v>2.253485358823116</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.26316220563582</v>
+        <v>2.41839270390835</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.316028461096036</v>
+        <v>1.589192300711929</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4852844660598168</v>
+        <v>0.4654586918300319</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7397758069598737</v>
+        <v>0.7898391449802639</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.171028712899276</v>
+        <v>1.125191862135428</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.849501277512783</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>15.52969108098124</v>
+        <v>15.52969108098125</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.79368115584523</v>
+        <v>-18.87488647211924</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-19.94682245011236</v>
+        <v>-21.32018086739273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.61606022285014</v>
+        <v>-9.844189411027681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-29.98305174285495</v>
+        <v>-28.98944424080131</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-34.67618067780357</v>
+        <v>-32.19227317939234</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.06331594441216</v>
+        <v>-17.84967484096488</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-12.85514451303162</v>
+        <v>-13.37973749379053</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-20.03322325304213</v>
+        <v>-18.7903418624152</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.829696568171284</v>
+        <v>-3.949481182724049</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.15541128636919</v>
+        <v>29.90851390517699</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.999436577375</v>
+        <v>27.24533224321573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38.14531465259744</v>
+        <v>41.99095619229751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.81268671020572</v>
+        <v>25.79783292628822</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.28630926821691</v>
+        <v>25.76159290482767</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>35.6216537163131</v>
+        <v>35.57290339185445</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>22.05949496155652</v>
+        <v>23.13052355896572</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>20.01859638616339</v>
+        <v>18.79150652537012</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>33.95634489772885</v>
+        <v>33.0557684068936</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.06605033155792238</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6136677239073716</v>
+        <v>0.6136677239073719</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3048044795122443</v>
@@ -1197,7 +1197,7 @@
         <v>0.1375097938139872</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7494239905744579</v>
+        <v>0.7494239905744582</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5175486820792696</v>
+        <v>-0.515174226795642</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6119793533200985</v>
+        <v>-0.6220678872171715</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4425931494524191</v>
+        <v>-0.2971158141882193</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7156434759736724</v>
+        <v>-0.728448741912747</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8379015981402329</v>
+        <v>-0.8271883395847159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.424138480796132</v>
+        <v>-0.4178016004505676</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3983162861016163</v>
+        <v>-0.4106286078462062</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5474092993274017</v>
+        <v>-0.5511187739654919</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1063020664160488</v>
+        <v>-0.1410199895700237</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.893726564096887</v>
+        <v>5.043856794046128</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.781139813120901</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>6.783019188466007</v>
-      </c>
+        <v>4.444429558729832</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>3.578343846964241</v>
+        <v>4.531069511797649</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.485144563573327</v>
+        <v>4.332417217857532</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.901535198121307</v>
+        <v>5.633407120984883</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.015133204898109</v>
+        <v>2.508480609199954</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.362885894061435</v>
+        <v>2.022352300266888</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.766144675836645</v>
+        <v>3.351142948365112</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1286,7 @@
         <v>-3.174725962460512</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.59771679212683</v>
+        <v>14.59771679212682</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-20.94873039093517</v>
@@ -1306,7 +1304,7 @@
         <v>-1.004037462206633</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.397453953018887</v>
+        <v>1.397453953018882</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1315,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-42.72120539356084</v>
+        <v>-37.68008773288686</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-33.03555149261103</v>
+        <v>-33.75479065130489</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-22.38968273798707</v>
+        <v>-14.18498848338445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-59.16179493412839</v>
+        <v>-58.44456911482079</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-45.52498996536377</v>
+        <v>-41.57699340931785</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-58.11028252485326</v>
+        <v>-59.73474788383407</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-33.35567523785545</v>
+        <v>-32.32230164330824</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-23.80868418968934</v>
+        <v>-24.89518863423077</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-20.47574819605749</v>
+        <v>-21.84864043705326</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1350,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.905899872109891</v>
+        <v>8.278223806562623</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.20757406288752</v>
+        <v>17.85109372425138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33.11103961722811</v>
+        <v>34.11031303928861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.752027612700628</v>
+        <v>9.801180231747354</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>27.71381147481435</v>
+        <v>30.51548637392769</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.41362477597991</v>
+        <v>7.077079643160543</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.858283764264564</v>
+        <v>8.098583875075496</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>19.61524843088813</v>
+        <v>18.1393968966202</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.05784529782188</v>
+        <v>19.26212775364165</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1391,7 @@
         <v>-0.194520174290105</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8944237859324916</v>
+        <v>0.8944237859324909</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5447949881354103</v>
@@ -1411,7 +1409,7 @@
         <v>-0.0424622904027361</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.05910047962466105</v>
+        <v>0.05910047962466081</v>
       </c>
     </row>
     <row r="26">
@@ -1424,25 +1422,25 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.5913389491406575</v>
+        <v>-0.4188573310791704</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.9253681994974556</v>
+        <v>-0.9258370695698145</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.748708895595293</v>
+        <v>-0.7184258271415592</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8777296298923053</v>
+        <v>-0.8832067855132333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8380060329131025</v>
+        <v>-0.8405434032081291</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.636476171519636</v>
+        <v>-0.6412745720731697</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5268868899918349</v>
+        <v>-0.5334761282868246</v>
       </c>
     </row>
     <row r="27">
@@ -1456,20 +1454,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>0.8423522225903601</v>
+        <v>1.354395881824191</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.498564986608844</v>
-      </c>
-      <c r="H27" s="6" t="inlineStr"/>
+        <v>2.95212692961893</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.8028527241894015</v>
+      </c>
       <c r="I27" s="6" t="n">
-        <v>0.9468293820496985</v>
+        <v>1.1175495340462</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.249754764710985</v>
+        <v>1.80046547807531</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.340336507272396</v>
+        <v>1.904636736572608</v>
       </c>
     </row>
     <row r="28">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-41.53367218548249</v>
+        <v>-44.09769927699099</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-34.47507383295894</v>
+        <v>-37.02403424913778</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-35.2548395279406</v>
+        <v>-40.88468299153418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.975584326021601</v>
+        <v>4.944559323347507</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>10.49023727562512</v>
+        <v>11.1051745028145</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-16.38966892902659</v>
+        <v>-16.15268759723909</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-24.15870238579656</v>
+        <v>-19.68268531465112</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.04502775170168</v>
+        <v>-13.50370023066366</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>26.37012012659881</v>
+        <v>26.20212629484657</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>37.46291365327576</v>
+        <v>35.17266968000294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24.95377536227591</v>
+        <v>24.87501818521377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26.20351999762917</v>
+        <v>26.006277099659</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>15.91498786240038</v>
+        <v>14.15012512059761</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>30.71678399193851</v>
+        <v>31.04941909872033</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.45225537641717</v>
+        <v>17.5735860687967</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.76045495960293</v>
+        <v>12.12596332610287</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>22.7866134188152</v>
+        <v>23.59250613470819</v>
       </c>
     </row>
     <row r="31">
@@ -1619,7 +1619,7 @@
         <v>-0.07797466353811261</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.062111014564157</v>
+        <v>1.062111014564156</v>
       </c>
     </row>
     <row r="32">
@@ -1632,17 +1632,19 @@
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.7920642278083594</v>
+        <v>-0.7832555371127675</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.8191178598501206</v>
-      </c>
-      <c r="J32" s="6" t="inlineStr"/>
+        <v>-0.8153339929415326</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4627003636998129</v>
+        <v>-0.495634908731033</v>
       </c>
     </row>
     <row r="33">
@@ -1709,31 +1711,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-72.5227150634424</v>
+        <v>-74.7743836298348</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-81.82498507484642</v>
+        <v>-81.88882446045315</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-71.78281352164221</v>
+        <v>-68.82895087005434</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-36.45464918971209</v>
+        <v>-35.60001619203537</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-44.1602308005436</v>
+        <v>-43.75259005971741</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-30.08668125878042</v>
+        <v>-34.86576881993293</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-36.53220102775396</v>
+        <v>-34.07313150932048</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-43.05897555512243</v>
+        <v>-44.63701604327639</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-31.06343482511991</v>
+        <v>-32.12317379902951</v>
       </c>
     </row>
     <row r="36">
@@ -1744,31 +1746,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.6294568743742</v>
+        <v>27.00894617850179</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20.24219570948634</v>
+        <v>22.13280418377894</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.69458135228787</v>
+        <v>11.71395492464373</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.120447759785434</v>
+        <v>7.045622548227501</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>18.84144636161468</v>
+        <v>18.41227065342646</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.12350629565991</v>
+        <v>11.81113613603816</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.656460913889354</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>13.37546826941326</v>
+        <v>14.74449266677711</v>
       </c>
     </row>
     <row r="37">
@@ -1820,11 +1822,11 @@
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="n">
-        <v>-0.9293633426305505</v>
+        <v>-0.914811309769094</v>
       </c>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.7209093573926023</v>
+        <v>-0.7460610782276423</v>
       </c>
     </row>
     <row r="39">
@@ -1843,7 +1845,7 @@
       <c r="I39" s="6" t="inlineStr"/>
       <c r="J39" s="6" t="inlineStr"/>
       <c r="K39" s="6" t="n">
-        <v>1.897873623216817</v>
+        <v>2.348787774176048</v>
       </c>
     </row>
     <row r="40">
@@ -1893,31 +1895,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-69.0419311950414</v>
+        <v>-62.82948835853998</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-76.81689711680303</v>
+        <v>-70.44752574731817</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-71.62464061038038</v>
+        <v>-82.42286708546285</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-15.54875721522935</v>
+        <v>-17.35752413473698</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-19.28058512684382</v>
+        <v>-18.56513024259007</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-19.65302693467547</v>
+        <v>-17.74292639566961</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-21.06812896825201</v>
+        <v>-21.54666514151814</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-20.70153249041941</v>
+        <v>-21.17263572124572</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-21.2923475330696</v>
+        <v>-21.11841491699019</v>
       </c>
     </row>
     <row r="42">
@@ -1928,31 +1930,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.392820035043801</v>
+        <v>13.9050641568737</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.642448474285767</v>
+        <v>5.584296532157729</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.609896122376127</v>
+        <v>1.468823631242754</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.14187192003347</v>
+        <v>6.153462339105921</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.677692923143948</v>
+        <v>5.902717544983592</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.276673796749216</v>
+        <v>7.180934008438773</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.004043552932266</v>
+        <v>5.496987522755468</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.792403169530732</v>
+        <v>3.748372793724537</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.755278062372487</v>
+        <v>2.754491048385634</v>
       </c>
     </row>
     <row r="43">
@@ -2004,11 +2006,11 @@
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9942285406309281</v>
       </c>
       <c r="J44" s="6" t="inlineStr"/>
       <c r="K44" s="6" t="n">
-        <v>-0.916347206791761</v>
+        <v>-0.9195175217524693</v>
       </c>
     </row>
     <row r="45">
@@ -2024,12 +2026,10 @@
       <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr"/>
-      <c r="I45" s="6" t="n">
-        <v>2.517668877649882</v>
-      </c>
+      <c r="I45" s="6" t="inlineStr"/>
       <c r="J45" s="6" t="inlineStr"/>
       <c r="K45" s="6" t="n">
-        <v>2.17257758641722</v>
+        <v>2.065090189192418</v>
       </c>
     </row>
     <row r="46">
@@ -2079,31 +2079,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-17.45182639274213</v>
+        <v>-16.57519058975856</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-20.21542036991745</v>
+        <v>-22.67976810003693</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-16.19236564223077</v>
+        <v>-16.72958921083162</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-11.48498754257741</v>
+        <v>-13.26946777755815</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-13.97058947202486</v>
+        <v>-13.95296435221672</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-9.32810562830114</v>
+        <v>-10.13436098936786</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-12.11012873046989</v>
+        <v>-12.16757578989862</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-15.73163968864235</v>
+        <v>-16.23877061194862</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-11.33410794186779</v>
+        <v>-11.12076801366776</v>
       </c>
     </row>
     <row r="48">
@@ -2114,31 +2114,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.879421865935829</v>
+        <v>3.298493253542802</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.4682122445203858</v>
+        <v>-0.5545965575505676</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.704374097099388</v>
+        <v>5.520674885303561</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.233641675544961</v>
+        <v>7.631776488898745</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.675304977069319</v>
+        <v>6.491878661178847</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.67334121970629</v>
+        <v>10.23450481253614</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.800114364724019</v>
+        <v>2.387801019238555</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.7974922941889631</v>
+        <v>-1.198063558770865</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.976495343531933</v>
+        <v>4.216907947287363</v>
       </c>
     </row>
     <row r="49">
@@ -2184,31 +2184,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4363302177440806</v>
+        <v>-0.4235889682718559</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.533415471832537</v>
+        <v>-0.5626442165048173</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4270608748422903</v>
+        <v>-0.4151256789570242</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4106160725828195</v>
+        <v>-0.4509102108206017</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5100579272102121</v>
+        <v>-0.50380851612146</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.341280589422008</v>
+        <v>-0.3547069253114478</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3622605585593964</v>
+        <v>-0.383744781897348</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4833265737480922</v>
+        <v>-0.4878735464108498</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3434517072251746</v>
+        <v>-0.3394245347908062</v>
       </c>
     </row>
     <row r="51">
@@ -2219,31 +2219,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.120255957126798</v>
+        <v>0.1376963601958148</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.01980175755634049</v>
+        <v>-0.01965162581757114</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2268901795822288</v>
+        <v>0.2006232638097904</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6279014939689762</v>
+        <v>0.5631998083615526</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.425598624158358</v>
+        <v>0.4722838812244088</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.750715731782754</v>
+        <v>0.7070561222157239</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.09164503468188649</v>
+        <v>0.1039485332434799</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.02536221249744975</v>
+        <v>-0.04495152826138363</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1750387918930199</v>
+        <v>0.195213175684579</v>
       </c>
     </row>
     <row r="52">
